--- a/open-content.xlsx
+++ b/open-content.xlsx
@@ -1,24 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Data sources" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+  <si>
+    <t>Title of content</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Formats</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Automatic Semantic Role Annotation for Spanish | Bick, Eckhard and Valverde Ibáñez, M. Pilar</t>
+  </si>
+  <si>
+    <t>Europeana</t>
+  </si>
+  <si>
+    <t>https://www.europeana.eu/portal/en/record/92097/BibliographicResource_1000126666944.html?q=spanish</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>No re-use</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Proceedings</t>
+  </si>
+  <si>
+    <t>Typr</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://data.gov.uk/dataset/modern_foreign_languages_in_schools_in_wales</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Data.gov.uk</t>
+  </si>
+  <si>
+    <t>OGL</t>
+  </si>
+  <si>
+    <t>OAI-PMH Reg Data providers</t>
+  </si>
+  <si>
+    <t>https://www.openarchives.org/Register/BrowseSites</t>
+  </si>
+  <si>
+    <t>Oxford Text Archive</t>
+  </si>
+  <si>
+    <t>http://ota.ox.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.europeana.eu/portal/en</t>
+  </si>
+  <si>
+    <t>http://www.nationalarchives.gov.uk/</t>
+  </si>
+  <si>
+    <t>The National Archives</t>
+  </si>
+  <si>
+    <t>Google Book Search</t>
+  </si>
+  <si>
+    <t>Project Gutenberg</t>
+  </si>
+  <si>
+    <t>https://www.gutenberg.org/wiki/Main_Page</t>
+  </si>
+  <si>
+    <t>Internet Archive</t>
+  </si>
+  <si>
+    <t>https://archive.org/</t>
+  </si>
+  <si>
+    <t>https://books.google.co.uk/</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>DBPedia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%25s</t>
+  </si>
+  <si>
+    <t>Humanities Data Sources</t>
+  </si>
+  <si>
+    <t>British Library</t>
+  </si>
+  <si>
+    <t>https://www.bl.uk/</t>
+  </si>
+  <si>
+    <t>Journal of Open Humanities Data</t>
+  </si>
+  <si>
+    <t>https://openhumanitiesdata.metajnl.com/articles/10.5334/johd.4/</t>
+  </si>
+  <si>
+    <t>NINES</t>
+  </si>
+  <si>
+    <t>http://www.nines.org/</t>
+  </si>
+  <si>
+    <t>http://wiki.dbpedia.org/develop/datasets</t>
+  </si>
+  <si>
+    <t>ODI Madrid Node</t>
+  </si>
+  <si>
+    <t>https://theodi.org/nodes/madrid</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,17 +214,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +530,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>